--- a/agg_state/agg_state_2015_2016.xlsx
+++ b/agg_state/agg_state_2015_2016.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.004</v>
+        <v>0.007</v>
       </c>
       <c r="B2">
-        <v>0.88</v>
+        <v>1.002</v>
       </c>
       <c r="C2">
-        <v>0.922</v>
+        <v>0.921</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.003</v>
+        <v>-0.009</v>
       </c>
       <c r="B2">
-        <v>0.955</v>
+        <v>0.829</v>
       </c>
       <c r="C2">
-        <v>0.922</v>
+        <v>0.923</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.005</v>
+        <v>-0.017</v>
       </c>
       <c r="B2">
-        <v>0.99</v>
+        <v>0.742</v>
       </c>
       <c r="C2">
-        <v>-602.26</v>
+        <v>1881.11</v>
       </c>
       <c r="D2">
-        <v>-0.005</v>
+        <v>0.012</v>
       </c>
     </row>
   </sheetData>
